--- a/Link Exchange Details - Flick.xlsx
+++ b/Link Exchange Details - Flick.xlsx
@@ -10473,7 +10473,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11027,6 +11027,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Link Exchange Details - Flick.xlsx
+++ b/Link Exchange Details - Flick.xlsx
@@ -9083,11 +9083,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9861,6 +9861,11 @@
       </c>
       <c r="K29" s="10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Link Exchange Details - Flick.xlsx
+++ b/Link Exchange Details - Flick.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="3"/>
@@ -14,7 +14,7 @@
     <sheet name="LatinAttraction" sheetId="5" r:id="rId5"/>
     <sheet name="LeatherDreams" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1716,8 +1716,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1998,7 +1998,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2033,7 +2032,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2209,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2217,7 +2215,7 @@
       <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2231,7 +2229,7 @@
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="I4" t="s">
         <v>16</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2526,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2634,7 +2632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2666,7 +2664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2695,7 +2693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -2887,7 +2885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -2919,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3067,7 +3065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3145,7 +3143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="64.5">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3304,7 +3302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3449,7 +3447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="I45" s="9" t="s">
         <v>85</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="10">
         <v>42</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -3544,7 +3542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="10">
         <v>45</v>
       </c>
@@ -3576,7 +3574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="10">
         <v>46</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="10">
         <v>47</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="10">
         <v>48</v>
       </c>
@@ -3660,7 +3658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="10">
         <v>49</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="10">
         <v>50</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="10">
         <v>51</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="10">
         <v>52</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="10">
         <v>53</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="10">
         <v>54</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="10">
         <v>55</v>
       </c>
@@ -3836,7 +3834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="10">
         <v>56</v>
       </c>
@@ -3859,7 +3857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="10">
         <v>57</v>
       </c>
@@ -3882,7 +3880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="10">
         <v>58</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="10">
         <v>59</v>
       </c>
@@ -3928,7 +3926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="10">
         <v>60</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="10">
         <v>61</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="10">
         <v>62</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="10">
         <v>63</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="10">
         <v>64</v>
       </c>
@@ -4073,7 +4071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="10">
         <v>65</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="10">
         <v>66</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="10">
         <v>67</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="10">
         <v>68</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="10">
         <v>69</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="10">
         <v>70</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="10">
         <v>71</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="10">
         <v>72</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="10">
         <v>73</v>
       </c>
@@ -4319,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="10">
         <v>74</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="10">
         <v>75</v>
       </c>
@@ -4377,7 +4375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="10">
         <v>76</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="10">
         <v>77</v>
       </c>
@@ -4435,7 +4433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="10">
         <v>78</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="10">
         <v>79</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="10">
         <v>80</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="10">
         <v>81</v>
       </c>
@@ -4551,7 +4549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="10">
         <v>82</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="10">
         <v>83</v>
       </c>
@@ -4615,7 +4613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="10">
         <v>84</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="10">
         <v>85</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="D90" s="12"/>
@@ -4685,7 +4683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="D91" s="12"/>
@@ -4700,7 +4698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="10">
         <v>86</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="10">
         <v>87</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="10">
         <v>88</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="10">
         <v>89</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="10">
         <v>90</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="10">
         <v>91</v>
       </c>
@@ -4872,7 +4870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="10">
         <v>92</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="10">
         <v>93</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="10">
         <v>94</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="10">
         <v>95</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="10">
         <v>96</v>
       </c>
@@ -5020,7 +5018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="10">
         <v>97</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="10">
         <v>98</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="10">
         <v>99</v>
       </c>
@@ -5107,7 +5105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="10">
         <v>100</v>
       </c>
@@ -5136,7 +5134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="10">
         <v>101</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="10">
         <v>102</v>
       </c>
@@ -5194,7 +5192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="10">
         <v>103</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="10">
         <v>104</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="10">
         <v>105</v>
       </c>
@@ -5275,7 +5273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="10">
         <v>106</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="10">
         <v>107</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="10">
         <v>108</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="10">
         <v>109</v>
       </c>
@@ -5379,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="10">
         <v>110</v>
       </c>
@@ -5411,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="10">
         <v>111</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="10">
         <v>112</v>
       </c>
@@ -5466,7 +5464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="10">
         <v>113</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="10">
         <v>114</v>
       </c>
@@ -5527,7 +5525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="10">
         <v>115</v>
       </c>
@@ -5562,7 +5560,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="10">
         <v>116</v>
       </c>
@@ -5591,7 +5589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="10">
         <v>117</v>
       </c>
@@ -5623,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75">
       <c r="A124" s="10">
         <v>118</v>
       </c>
@@ -5652,7 +5650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75">
       <c r="A125" s="10">
         <v>119</v>
       </c>
@@ -5681,7 +5679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="10">
         <v>120</v>
       </c>
@@ -5710,7 +5708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="10">
         <v>121</v>
       </c>
@@ -5739,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="10">
         <v>122</v>
       </c>
@@ -5768,7 +5766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="10">
         <v>123</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="10">
         <v>124</v>
       </c>
@@ -5826,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="10">
         <v>125</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="10">
         <v>126</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="10">
         <v>127</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="10">
         <v>128</v>
       </c>
@@ -5942,7 +5940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="10">
         <v>129</v>
       </c>
@@ -5971,7 +5969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="10">
         <v>130</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="10">
         <v>131</v>
       </c>
@@ -6026,7 +6024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="10">
         <v>132</v>
       </c>
@@ -6052,7 +6050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="10">
         <v>133</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="10">
         <v>134</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="10">
         <v>135</v>
       </c>
@@ -6142,7 +6140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="10">
         <v>136</v>
       </c>
@@ -6162,7 +6160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="10">
         <v>137</v>
       </c>
@@ -6194,7 +6192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="10">
         <v>138</v>
       </c>
@@ -6223,7 +6221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="10">
         <v>139</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="10">
         <v>140</v>
       </c>
@@ -6281,7 +6279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="10">
         <v>141</v>
       </c>
@@ -6310,7 +6308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="10">
         <v>142</v>
       </c>
@@ -6342,7 +6340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="10">
         <v>143</v>
       </c>
@@ -6374,7 +6372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="10">
         <v>144</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="10">
         <v>145</v>
       </c>
@@ -6438,7 +6436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="10">
         <v>146</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="10">
         <v>147</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="10">
         <v>148</v>
       </c>
@@ -6528,7 +6526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="10">
         <v>149</v>
       </c>
@@ -6557,7 +6555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="10">
         <v>150</v>
       </c>
@@ -6586,7 +6584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="10">
         <v>151</v>
       </c>
@@ -6612,7 +6610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="10">
         <v>152</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="10">
         <v>153</v>
       </c>
@@ -6674,7 +6672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="10">
         <v>154</v>
       </c>
@@ -6706,7 +6704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="10">
         <v>155</v>
       </c>
@@ -6735,7 +6733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="10">
         <v>156</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="10">
         <v>157</v>
       </c>
@@ -6790,7 +6788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="10">
         <v>158</v>
       </c>
@@ -6816,7 +6814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="10">
         <v>159</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="10">
         <v>160</v>
       </c>
@@ -6877,7 +6875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="10">
         <v>161</v>
       </c>
@@ -6906,7 +6904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="10">
         <v>162</v>
       </c>
@@ -6938,7 +6936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="10">
         <v>163</v>
       </c>
@@ -6964,7 +6962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="10">
         <v>164</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="H171" s="10">
         <v>0</v>
       </c>
@@ -7007,7 +7005,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="10">
         <v>165</v>
       </c>
@@ -7039,7 +7037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="10">
         <v>166</v>
       </c>
@@ -7071,7 +7069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="10">
         <v>167</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="10">
         <v>168</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="10">
         <v>169</v>
       </c>
@@ -7155,7 +7153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="J177" s="9" t="s">
         <v>347</v>
       </c>
@@ -7163,7 +7161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="J178" s="9" t="s">
         <v>348</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="10">
         <v>170</v>
       </c>
@@ -7203,7 +7201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="H180" s="10">
         <v>0</v>
       </c>
@@ -7211,7 +7209,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="H181" s="10">
         <v>0</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="H182" s="10">
         <v>0</v>
       </c>
@@ -7230,7 +7228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="10">
         <v>171</v>
       </c>
@@ -7262,7 +7260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="J184" s="9" t="s">
         <v>357</v>
       </c>
@@ -7270,7 +7268,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" s="10">
         <v>172</v>
       </c>
@@ -7302,7 +7300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" s="10">
         <v>173</v>
       </c>
@@ -7334,7 +7332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" s="10">
         <v>174</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" s="10">
         <v>175</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" s="10">
         <v>176</v>
       </c>
@@ -7427,7 +7425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" s="10">
         <v>177</v>
       </c>
@@ -7459,7 +7457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="10">
         <v>178</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="10">
         <v>179</v>
       </c>
@@ -7520,7 +7518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="10">
         <v>180</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="10">
         <v>181</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="10">
         <v>182</v>
       </c>
@@ -7601,7 +7599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196" s="10">
         <v>183</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" s="10">
         <v>184</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" s="10">
         <v>185</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199" s="10">
         <v>186</v>
       </c>
@@ -7727,7 +7725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7735,7 +7733,7 @@
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -7749,7 +7747,7 @@
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7784,10 +7782,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1">
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -7812,7 +7810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -7839,7 +7837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -7888,7 +7886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -7920,7 +7918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -7943,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -7975,7 +7973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -8039,7 +8037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -8071,7 +8069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -8100,7 +8098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -8123,7 +8121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -8155,7 +8153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -8213,7 +8211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -8242,7 +8240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -8271,7 +8269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -8332,7 +8330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="21">
         <v>22</v>
       </c>
@@ -8422,7 +8420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -8451,7 +8449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -8480,7 +8478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="21">
         <v>25</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="21">
         <v>26</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="21">
         <v>27</v>
       </c>
@@ -8571,7 +8569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="21">
         <v>28</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -8633,7 +8631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="21">
         <v>30</v>
       </c>
@@ -8669,7 +8667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8677,7 +8675,7 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -8692,7 +8690,7 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8727,10 +8725,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1">
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -8762,7 +8760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -8817,7 +8815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -8849,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -8907,7 +8905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -8936,7 +8934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -8965,7 +8963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -8994,7 +8992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -9023,7 +9021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -9055,7 +9053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -9082,15 +9080,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -9104,7 +9102,7 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9139,10 +9137,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1">
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -9168,7 +9166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -9242,7 +9240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -9263,7 +9261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -9284,7 +9282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -9316,7 +9314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -9348,7 +9346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -9380,7 +9378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -9409,7 +9407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -9441,7 +9439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="J14" s="13" t="s">
         <v>443</v>
       </c>
@@ -9449,7 +9447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -9513,7 +9511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -9545,7 +9543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -9574,7 +9572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -9603,7 +9601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -9632,7 +9630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -9693,7 +9691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -9722,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -9768,7 +9766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -9791,7 +9789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="10">
         <v>15</v>
       </c>
@@ -9863,10 +9861,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>16</v>
-      </c>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9875,7 +9871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9883,7 +9879,7 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -9897,7 +9893,7 @@
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9932,8 +9928,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1"/>
+    <row r="3" spans="1:11" s="10" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -9965,7 +9961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="I5" s="9" t="s">
         <v>155</v>
       </c>
@@ -10002,7 +9998,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -10066,7 +10062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -10098,7 +10094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -10194,7 +10190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -10226,7 +10222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -10351,7 +10347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -10374,7 +10370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -10439,7 +10435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -10477,7 +10473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10485,7 +10481,7 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -10499,7 +10495,7 @@
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10534,10 +10530,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1">
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -10569,7 +10565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -10630,7 +10626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -10662,7 +10658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -10694,7 +10690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -10755,7 +10751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -10813,7 +10809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -10839,7 +10835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -10865,7 +10861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -10891,7 +10887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -10917,7 +10913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -10943,7 +10939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -10966,7 +10962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -10999,7 +10995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>17</v>
       </c>
